--- a/4Year.xlsx
+++ b/4Year.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\University-Coursework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University-Coursework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09164552-2676-45E5-B03B-563ECBE2D9FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E4C71E-46C8-455A-8EA0-7DF08A661B4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{0BB7F78E-7DD7-4710-BA6B-50E0048D8553}"/>
+    <workbookView xWindow="7275" yWindow="3945" windowWidth="11925" windowHeight="6255" xr2:uid="{0BB7F78E-7DD7-4710-BA6B-50E0048D8553}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>Year One</t>
   </si>
@@ -81,12 +81,6 @@
     <t>EGR103</t>
   </si>
   <si>
-    <t>MA214</t>
-  </si>
-  <si>
-    <t>PHY232</t>
-  </si>
-  <si>
     <t>STA381</t>
   </si>
   <si>
@@ -99,54 +93,9 @@
     <t>CS216</t>
   </si>
   <si>
-    <t>EE211</t>
-  </si>
-  <si>
-    <t>EE282</t>
-  </si>
-  <si>
-    <t>PHY242</t>
-  </si>
-  <si>
-    <t>EE223</t>
-  </si>
-  <si>
-    <t>EE287</t>
-  </si>
-  <si>
     <t>CS315</t>
   </si>
   <si>
-    <t>EE380</t>
-  </si>
-  <si>
-    <t>EE415G</t>
-  </si>
-  <si>
-    <t>EE421G</t>
-  </si>
-  <si>
-    <t>EE416G</t>
-  </si>
-  <si>
-    <t>EE461G</t>
-  </si>
-  <si>
-    <t>EE468G</t>
-  </si>
-  <si>
-    <t>EE422G</t>
-  </si>
-  <si>
-    <t>EE490</t>
-  </si>
-  <si>
-    <t>EE5--</t>
-  </si>
-  <si>
-    <t>CS460G</t>
-  </si>
-  <si>
     <t>Graduation</t>
   </si>
   <si>
@@ -156,10 +105,49 @@
     <t>Global Dynamics(Online)</t>
   </si>
   <si>
-    <t>CS275 (UK)</t>
-  </si>
-  <si>
     <t>Total Hours:</t>
+  </si>
+  <si>
+    <t>EE280</t>
+  </si>
+  <si>
+    <t>CS270</t>
+  </si>
+  <si>
+    <t>CS371</t>
+  </si>
+  <si>
+    <t>CS3--+</t>
+  </si>
+  <si>
+    <t>CS380</t>
+  </si>
+  <si>
+    <t>CS498</t>
+  </si>
+  <si>
+    <t>CS499</t>
+  </si>
+  <si>
+    <t>CS375</t>
+  </si>
+  <si>
+    <t>Nat. Sci (Online)</t>
+  </si>
+  <si>
+    <t>Sci. Elective (Online)</t>
+  </si>
+  <si>
+    <t>Tech.</t>
+  </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>CS275</t>
+  </si>
+  <si>
+    <t>Free Elect. (Online</t>
   </si>
 </sst>
 </file>
@@ -388,6 +376,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -406,7 +395,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -721,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87DB6634-0914-4859-8FC7-C40DDE4E4DC5}">
-  <dimension ref="B1:L21"/>
+  <dimension ref="B1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,7 +746,7 @@
       </c>
       <c r="I2" s="5"/>
       <c r="K2" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L2" s="5"/>
     </row>
@@ -796,23 +784,19 @@
         <v>5</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F4" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I4" s="11">
         <v>3</v>
       </c>
-      <c r="K4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="11">
-        <v>3</v>
-      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
@@ -822,23 +806,19 @@
         <v>4</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F5" s="9">
         <v>4</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I5" s="11">
         <v>3</v>
       </c>
-      <c r="K5" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" s="11">
-        <v>3</v>
-      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="11"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
@@ -848,23 +828,19 @@
         <v>2</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F6" s="9">
         <v>4</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I6" s="11">
-        <v>2</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" s="11">
-        <v>3</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="11"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
@@ -874,23 +850,19 @@
         <v>1</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F7" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I7" s="11">
-        <v>4</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="L7" s="11">
-        <v>3</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="11"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
@@ -900,21 +872,21 @@
         <v>4</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F8" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I8" s="11">
-        <v>2</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" s="15"/>
+        <v>3</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="16"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
@@ -922,38 +894,38 @@
       <c r="E9" s="8"/>
       <c r="F9" s="9"/>
       <c r="H9" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I9" s="11">
         <v>3</v>
       </c>
-      <c r="K9" s="16"/>
-      <c r="L9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="20" t="s">
-        <v>42</v>
+      <c r="B10" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="C10" s="11">
         <f>SUM(C4:C8)</f>
         <v>16</v>
       </c>
-      <c r="E10" s="20" t="s">
-        <v>42</v>
+      <c r="E10" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="F10" s="11">
         <f>SUM(F4:F8)</f>
         <v>17</v>
       </c>
-      <c r="H10" s="20" t="s">
-        <v>42</v>
+      <c r="H10" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="I10" s="11">
         <f>SUM(I4:I9)</f>
-        <v>17</v>
-      </c>
-      <c r="K10" s="16"/>
-      <c r="L10" s="17"/>
+        <v>18</v>
+      </c>
+      <c r="K10" s="17"/>
+      <c r="L10" s="18"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
@@ -968,8 +940,8 @@
         <v>4</v>
       </c>
       <c r="I11" s="7"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="18"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
@@ -985,13 +957,13 @@
         <v>3</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I12" s="11">
         <v>3</v>
       </c>
-      <c r="K12" s="16"/>
-      <c r="L12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="18"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
@@ -1001,19 +973,19 @@
         <v>5</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F13" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I13" s="11">
         <v>3</v>
       </c>
-      <c r="K13" s="16"/>
-      <c r="L13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="18"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
@@ -1023,19 +995,19 @@
         <v>4</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F14" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>36</v>
       </c>
       <c r="I14" s="11">
-        <v>3</v>
-      </c>
-      <c r="K14" s="16"/>
-      <c r="L14" s="17"/>
+        <v>4</v>
+      </c>
+      <c r="K14" s="17"/>
+      <c r="L14" s="18"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
@@ -1051,35 +1023,35 @@
         <v>3</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="I15" s="11">
         <v>3</v>
       </c>
-      <c r="K15" s="16"/>
-      <c r="L15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="18"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16" s="11">
         <v>3</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F16" s="9">
         <v>3</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I16" s="9">
         <v>3</v>
       </c>
-      <c r="K16" s="16"/>
-      <c r="L16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="18"/>
     </row>
     <row r="17" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="12"/>
@@ -1090,15 +1062,15 @@
       <c r="E17" s="10"/>
       <c r="F17" s="13">
         <f>SUM(F12:F16)</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H17" s="10"/>
       <c r="I17" s="13">
         <f>SUM(I12:I16)</f>
-        <v>15</v>
-      </c>
-      <c r="K17" s="18"/>
-      <c r="L17" s="19"/>
+        <v>16</v>
+      </c>
+      <c r="K17" s="19"/>
+      <c r="L17" s="20"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
@@ -1110,28 +1082,42 @@
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C20" s="2">
         <v>3</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F20" s="2">
         <v>3</v>
       </c>
       <c r="K20">
         <f>SUM(C17,C10,F10,F17,I17,I10,L4:L7) +22</f>
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/4Year.xlsx
+++ b/4Year.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University-Coursework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E4C71E-46C8-455A-8EA0-7DF08A661B4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE81FC4-C217-48E1-9C10-F4255102A6CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7275" yWindow="3945" windowWidth="11925" windowHeight="6255" xr2:uid="{0BB7F78E-7DD7-4710-BA6B-50E0048D8553}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0BB7F78E-7DD7-4710-BA6B-50E0048D8553}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -147,7 +149,7 @@
     <t>CS275</t>
   </si>
   <si>
-    <t>Free Elect. (Online</t>
+    <t>Free Elect.</t>
   </si>
 </sst>
 </file>
@@ -197,7 +199,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -357,11 +359,89 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -395,6 +475,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -709,10 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87DB6634-0914-4859-8FC7-C40DDE4E4DC5}">
-  <dimension ref="B1:L22"/>
+  <dimension ref="B1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,8 +881,12 @@
       <c r="I4" s="11">
         <v>3</v>
       </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="11"/>
+      <c r="K4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="11">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
@@ -817,8 +907,12 @@
       <c r="I5" s="11">
         <v>3</v>
       </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="11"/>
+      <c r="K5" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="26">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
@@ -839,8 +933,12 @@
       <c r="I6" s="11">
         <v>3</v>
       </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="11"/>
+      <c r="K6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="11">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
@@ -861,8 +959,12 @@
       <c r="I7" s="11">
         <v>3</v>
       </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="11"/>
+      <c r="K7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="11">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
@@ -878,7 +980,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I8" s="11">
         <v>3</v>
@@ -889,75 +991,83 @@
       <c r="L8" s="16"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="8"/>
-      <c r="C9" s="11"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-      <c r="H9" s="8" t="s">
-        <v>27</v>
+      <c r="B9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="11">
+        <f>SUM(C4:C8)</f>
+        <v>16</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="11">
+        <f>SUM(F4:F8)</f>
+        <v>17</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="I9" s="11">
-        <v>3</v>
+        <f>SUM(I4:I8)</f>
+        <v>15</v>
       </c>
       <c r="K9" s="17"/>
       <c r="L9" s="18"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="11">
-        <f>SUM(C4:C8)</f>
-        <v>16</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="11">
-        <f>SUM(F4:F8)</f>
-        <v>17</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="11">
-        <f>SUM(I4:I9)</f>
-        <v>18</v>
-      </c>
+      <c r="B10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="E10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="H10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="K10" s="17"/>
       <c r="L10" s="18"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="E11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="H11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="7"/>
+      <c r="B11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="11">
+        <v>2</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="9">
+        <v>3</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="11">
+        <v>3</v>
+      </c>
       <c r="K11" s="17"/>
       <c r="L11" s="18"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C12" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F12" s="9">
         <v>3</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I12" s="11">
         <v>3</v>
@@ -967,32 +1077,32 @@
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F13" s="9">
         <v>3</v>
       </c>
-      <c r="H13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="11">
-        <v>3</v>
+      <c r="H13" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="22">
+        <v>4</v>
       </c>
       <c r="K13" s="17"/>
       <c r="L13" s="18"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>28</v>
@@ -1000,129 +1110,85 @@
       <c r="F14" s="9">
         <v>3</v>
       </c>
-      <c r="H14" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I14" s="11">
-        <v>4</v>
+      <c r="H14" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="26">
+        <v>3</v>
       </c>
       <c r="K14" s="17"/>
       <c r="L14" s="18"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C15" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="9">
+        <v>3</v>
+      </c>
+      <c r="H15" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="9">
-        <v>3</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I15" s="11">
+      <c r="I15" s="24">
         <v>3</v>
       </c>
       <c r="K15" s="17"/>
       <c r="L15" s="18"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="11">
-        <v>3</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="9">
-        <v>3</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" s="9">
-        <v>3</v>
-      </c>
-      <c r="K16" s="17"/>
-      <c r="L16" s="18"/>
-    </row>
-    <row r="17" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
-      <c r="C17" s="13">
-        <f>SUM(C12:C16)</f>
+    <row r="16" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="12"/>
+      <c r="C16" s="13">
+        <f>SUM(C11:C15)</f>
         <v>15</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="13">
-        <f>SUM(F12:F16)</f>
+      <c r="E16" s="10"/>
+      <c r="F16" s="13">
+        <f>SUM(F11:F15)</f>
         <v>15</v>
       </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="13">
-        <f>SUM(I12:I16)</f>
+      <c r="H16" s="10"/>
+      <c r="I16" s="13">
+        <f>SUM(I11:I15)</f>
         <v>16</v>
       </c>
-      <c r="K17" s="19"/>
-      <c r="L17" s="20"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="20"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="2">
-        <v>3</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="C19" s="2">
+        <v>3</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="2">
-        <v>3</v>
-      </c>
-      <c r="K20">
-        <f>SUM(C17,C10,F10,F17,I17,I10,L4:L7) +22</f>
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="E21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22">
-        <v>3</v>
+      <c r="F19" s="2">
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <f>SUM(C16,C9,F9,F16,I16,I9,L4:L7) +22</f>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="K8:L17"/>
+    <mergeCell ref="K8:L16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/4Year.xlsx
+++ b/4Year.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University-Coursework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\University-Coursework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE81FC4-C217-48E1-9C10-F4255102A6CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376A97CA-73C4-4E75-BFC0-FD75B6CE6D9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0BB7F78E-7DD7-4710-BA6B-50E0048D8553}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{0BB7F78E-7DD7-4710-BA6B-50E0048D8553}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t>Year One</t>
   </si>
@@ -101,12 +101,6 @@
     <t>Graduation</t>
   </si>
   <si>
-    <t>Social Sci.(Online)</t>
-  </si>
-  <si>
-    <t>Global Dynamics(Online)</t>
-  </si>
-  <si>
     <t>Total Hours:</t>
   </si>
   <si>
@@ -150,6 +144,15 @@
   </si>
   <si>
     <t>Free Elect.</t>
+  </si>
+  <si>
+    <t>HIS121</t>
+  </si>
+  <si>
+    <t>Global Dynamics</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -441,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -457,6 +460,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -475,12 +486,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -795,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87DB6634-0914-4859-8FC7-C40DDE4E4DC5}">
-  <dimension ref="B1:L19"/>
+  <dimension ref="B1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,19 +875,19 @@
         <v>5</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" s="9">
         <v>3</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I4" s="11">
         <v>3</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L4" s="11">
         <v>3</v>
@@ -902,15 +907,15 @@
         <v>4</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I5" s="11">
         <v>3</v>
       </c>
-      <c r="K5" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="26">
+      <c r="K5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="20">
         <v>3</v>
       </c>
     </row>
@@ -922,19 +927,19 @@
         <v>2</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F6" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="9">
+        <v>3</v>
+      </c>
+      <c r="K6" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="I6" s="11">
-        <v>3</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>34</v>
       </c>
       <c r="L6" s="11">
         <v>3</v>
@@ -948,19 +953,19 @@
         <v>1</v>
       </c>
       <c r="E7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="9">
+        <v>3</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="9">
-        <v>3</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>28</v>
-      </c>
       <c r="I7" s="11">
         <v>3</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L7" s="11">
         <v>3</v>
@@ -973,47 +978,41 @@
       <c r="C8" s="11">
         <v>4</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="9">
-        <v>3</v>
-      </c>
       <c r="H8" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I8" s="11">
         <v>3</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="16"/>
+      <c r="L8" s="24"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" s="11">
         <f>SUM(C4:C8)</f>
         <v>16</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9" s="11">
-        <f>SUM(F4:F8)</f>
-        <v>17</v>
+        <f>SUM(F4:F7)</f>
+        <v>13</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I9" s="11">
         <f>SUM(I4:I8)</f>
         <v>15</v>
       </c>
-      <c r="K9" s="17"/>
-      <c r="L9" s="18"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
@@ -1028,8 +1027,8 @@
         <v>4</v>
       </c>
       <c r="I10" s="7"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="18"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="26"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
@@ -1045,13 +1044,13 @@
         <v>3</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I11" s="11">
         <v>3</v>
       </c>
-      <c r="K11" s="17"/>
-      <c r="L11" s="18"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
@@ -1067,13 +1066,13 @@
         <v>3</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I12" s="11">
         <v>3</v>
       </c>
-      <c r="K12" s="17"/>
-      <c r="L12" s="18"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="26"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
@@ -1083,19 +1082,19 @@
         <v>4</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F13" s="9">
         <v>3</v>
       </c>
-      <c r="H13" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" s="22">
+      <c r="H13" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="16">
         <v>4</v>
       </c>
-      <c r="K13" s="17"/>
-      <c r="L13" s="18"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
@@ -1105,19 +1104,19 @@
         <v>1</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F14" s="9">
         <v>3</v>
       </c>
-      <c r="H14" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="26">
-        <v>3</v>
-      </c>
-      <c r="K14" s="17"/>
-      <c r="L14" s="18"/>
+      <c r="H14" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="20">
+        <v>3</v>
+      </c>
+      <c r="K14" s="25"/>
+      <c r="L14" s="26"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
@@ -1127,19 +1126,19 @@
         <v>3</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F15" s="9">
         <v>3</v>
       </c>
-      <c r="H15" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="24">
-        <v>3</v>
-      </c>
-      <c r="K15" s="17"/>
-      <c r="L15" s="18"/>
+      <c r="H15" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="18">
+        <v>3</v>
+      </c>
+      <c r="K15" s="25"/>
+      <c r="L15" s="26"/>
     </row>
     <row r="16" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="12"/>
@@ -1157,8 +1156,8 @@
         <f>SUM(I11:I15)</f>
         <v>16</v>
       </c>
-      <c r="K16" s="19"/>
-      <c r="L16" s="20"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="28"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
@@ -1169,21 +1168,34 @@
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="2">
-        <v>3</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="2">
+      <c r="B19" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="21">
+        <v>3</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="21">
         <v>3</v>
       </c>
       <c r="K19">
         <f>SUM(C16,C9,F9,F16,I16,I9,L4:L7) +22</f>
-        <v>128</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/4Year.xlsx
+++ b/4Year.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\University-Coursework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376A97CA-73C4-4E75-BFC0-FD75B6CE6D9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33ACC41E-B701-425A-A42C-904D39C735AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{0BB7F78E-7DD7-4710-BA6B-50E0048D8553}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="88">
   <si>
     <t>Year One</t>
   </si>
@@ -98,61 +98,205 @@
     <t>CS315</t>
   </si>
   <si>
-    <t>Graduation</t>
-  </si>
-  <si>
     <t>Total Hours:</t>
   </si>
   <si>
-    <t>EE280</t>
-  </si>
-  <si>
     <t>CS270</t>
   </si>
   <si>
-    <t>CS371</t>
-  </si>
-  <si>
-    <t>CS3--+</t>
-  </si>
-  <si>
     <t>CS380</t>
   </si>
   <si>
-    <t>CS498</t>
-  </si>
-  <si>
-    <t>CS499</t>
-  </si>
-  <si>
-    <t>CS375</t>
-  </si>
-  <si>
-    <t>Nat. Sci (Online)</t>
-  </si>
-  <si>
-    <t>Sci. Elective (Online)</t>
-  </si>
-  <si>
-    <t>Tech.</t>
-  </si>
-  <si>
-    <t>Free</t>
-  </si>
-  <si>
     <t>CS275</t>
   </si>
   <si>
-    <t>Free Elect.</t>
-  </si>
-  <si>
     <t>HIS121</t>
   </si>
   <si>
-    <t>Global Dynamics</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>CS321</t>
+  </si>
+  <si>
+    <t>CS335</t>
+  </si>
+  <si>
+    <t>CHE107</t>
+  </si>
+  <si>
+    <t>MA214</t>
+  </si>
+  <si>
+    <t>Bio Class</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>Bio</t>
+  </si>
+  <si>
+    <t>Phy</t>
+  </si>
+  <si>
+    <t>Chem</t>
+  </si>
+  <si>
+    <t>MINOR</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>MAJOR</t>
+  </si>
+  <si>
+    <t>FOCUS</t>
+  </si>
+  <si>
+    <t>PHY232/242</t>
+  </si>
+  <si>
+    <t>CPE282</t>
+  </si>
+  <si>
+    <t>CPE200</t>
+  </si>
+  <si>
+    <t>EE211</t>
+  </si>
+  <si>
+    <t>CPE287</t>
+  </si>
+  <si>
+    <t>BIO148</t>
+  </si>
+  <si>
+    <t>EE223</t>
+  </si>
+  <si>
+    <t>EE421G</t>
+  </si>
+  <si>
+    <t>EE461G</t>
+  </si>
+  <si>
+    <t>CPE480</t>
+  </si>
+  <si>
+    <t>CPE Elective</t>
+  </si>
+  <si>
+    <t>CPE490</t>
+  </si>
+  <si>
+    <t>CPE491</t>
+  </si>
+  <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Summer Hours</t>
+  </si>
+  <si>
+    <t>Calc 1</t>
+  </si>
+  <si>
+    <t>Chem 1</t>
+  </si>
+  <si>
+    <t>Computation</t>
+  </si>
+  <si>
+    <t>Intro to Prog.</t>
+  </si>
+  <si>
+    <t>Project Design</t>
+  </si>
+  <si>
+    <t>Calc 2</t>
+  </si>
+  <si>
+    <t>Physics 1</t>
+  </si>
+  <si>
+    <t>Physics 1 Lab</t>
+  </si>
+  <si>
+    <t>Software Eng.</t>
+  </si>
+  <si>
+    <t>Logic Design/Lab</t>
+  </si>
+  <si>
+    <t>Calc 3</t>
+  </si>
+  <si>
+    <t>Systems Prog.</t>
+  </si>
+  <si>
+    <t>Linear Algebra</t>
+  </si>
+  <si>
+    <t>CompE Seminar</t>
+  </si>
+  <si>
+    <t>Diff. Equations</t>
+  </si>
+  <si>
+    <t>Physics 2 / Lab</t>
+  </si>
+  <si>
+    <t>Circuits 1</t>
+  </si>
+  <si>
+    <t>Embedded</t>
+  </si>
+  <si>
+    <t>Algo/Data Struc</t>
+  </si>
+  <si>
+    <t>Operating Sys.</t>
+  </si>
+  <si>
+    <t>AC Circuits</t>
+  </si>
+  <si>
+    <t>Biology 1</t>
+  </si>
+  <si>
+    <t>Calc Stats</t>
+  </si>
+  <si>
+    <t>Signals/Systems</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>Computer Arch.</t>
+  </si>
+  <si>
+    <t>Chem 2</t>
+  </si>
+  <si>
+    <t>Capstone 1</t>
+  </si>
+  <si>
+    <t>Graphics Prog</t>
+  </si>
+  <si>
+    <t>Linear Analysis</t>
+  </si>
+  <si>
+    <t>Capstone 2</t>
+  </si>
+  <si>
+    <t>PPL201</t>
   </si>
 </sst>
 </file>
@@ -197,12 +341,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -217,7 +361,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -232,7 +376,7 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -250,7 +394,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -265,61 +409,9 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -332,11 +424,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -344,9 +453,50 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -356,83 +506,7 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -444,47 +518,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -800,407 +869,885 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87DB6634-0914-4859-8FC7-C40DDE4E4DC5}">
-  <dimension ref="B1:L21"/>
+  <dimension ref="B1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="5.5703125" customWidth="1"/>
     <col min="4" max="4" width="4.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
     <col min="6" max="6" width="4.140625" customWidth="1"/>
     <col min="7" max="7" width="3.5703125" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
     <col min="9" max="9" width="5.5703125" customWidth="1"/>
     <col min="10" max="10" width="5.140625" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
     <col min="12" max="12" width="5.5703125" customWidth="1"/>
+    <col min="21" max="22" width="5.42578125" customWidth="1"/>
+    <col min="23" max="23" width="5.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+    <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="E2" s="4" t="s">
+      <c r="C2" s="27"/>
+      <c r="E2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="H2" s="4" t="s">
+      <c r="F2" s="27"/>
+      <c r="H2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="K2" s="4" t="s">
+      <c r="I2" s="27"/>
+      <c r="K2" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="5"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="L2" s="27"/>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="E3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="7" t="s">
+      <c r="H3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="7" t="s">
+      <c r="K3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="8">
         <v>5</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="7">
+        <v>4</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="8">
+        <v>3</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="8">
+        <v>4</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="7">
+        <v>4</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="9">
-        <v>3</v>
-      </c>
-      <c r="H4" s="8" t="s">
+      <c r="I5" s="8">
+        <v>3</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="8">
+        <v>2</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="7">
+        <v>3</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="7">
+        <v>4</v>
+      </c>
+      <c r="K6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="11">
-        <v>3</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="11">
-        <v>4</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="9">
-        <v>4</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="11">
-        <v>3</v>
-      </c>
-      <c r="K5" s="19" t="s">
+      <c r="L6" s="17">
+        <v>3</v>
+      </c>
+      <c r="P6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q6">
+        <v>17</v>
+      </c>
+      <c r="R6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="7">
+        <v>3</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="8">
+        <v>3</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="8">
+        <v>3</v>
+      </c>
+      <c r="P7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7">
+        <v>7</v>
+      </c>
+      <c r="R7" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="11">
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="8">
+        <v>4</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="8">
+        <v>3</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="22">
+        <v>3</v>
+      </c>
+      <c r="P8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8">
         <v>2</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="9">
-        <v>3</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="9">
-        <v>3</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="11">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="9">
-        <v>3</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="11">
-        <v>3</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="11">
-        <v>4</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="11">
-        <v>3</v>
-      </c>
-      <c r="K8" s="23" t="s">
+      <c r="R8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="24"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="11">
+      <c r="C9" s="8">
         <f>SUM(C4:C8)</f>
         <v>16</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="11">
-        <f>SUM(F4:F7)</f>
+      <c r="E9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="8">
+        <f>SUM(F4:F8)</f>
+        <v>15</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="8">
+        <f>SUM(I4:I8)</f>
+        <v>16</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="7">
+        <f>SUM(L4:L8)</f>
+        <v>15</v>
+      </c>
+      <c r="P9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q9">
+        <v>2</v>
+      </c>
+      <c r="R9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="E10" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="H10" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="K10" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q10">
+        <v>2</v>
+      </c>
+      <c r="R10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="8">
+        <v>2</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="7">
+        <v>3</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="8">
+        <v>3</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="8">
+        <v>5</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="7">
+        <v>4</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="8">
+        <v>3</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="8">
+        <v>4</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="7">
+        <v>5</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="12">
+        <v>3</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="11">
-        <f>SUM(I4:I8)</f>
-        <v>15</v>
-      </c>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="E10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="H10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="7"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="26"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="11">
-        <v>2</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="9">
-        <v>3</v>
-      </c>
-      <c r="H11" s="8" t="s">
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="7">
+        <v>4</v>
+      </c>
+      <c r="H14" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="11">
-        <v>3</v>
-      </c>
-      <c r="K11" s="25"/>
-      <c r="L11" s="26"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="11">
-        <v>5</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="9">
-        <v>3</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="11">
-        <v>3</v>
-      </c>
-      <c r="K12" s="25"/>
-      <c r="L12" s="26"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="11">
-        <v>4</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="9">
-        <v>3</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" s="16">
-        <v>4</v>
-      </c>
-      <c r="K13" s="25"/>
-      <c r="L13" s="26"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="11">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="9">
-        <v>3</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" s="20">
-        <v>3</v>
-      </c>
-      <c r="K14" s="25"/>
-      <c r="L14" s="26"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
+      <c r="I14" s="8">
+        <v>3</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="L14" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="11">
-        <v>3</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="9">
-        <v>3</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="18">
-        <v>3</v>
-      </c>
-      <c r="K15" s="25"/>
-      <c r="L15" s="26"/>
-    </row>
-    <row r="16" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
-      <c r="C16" s="13">
+      <c r="C15" s="8">
+        <v>3</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+      <c r="H15" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="14">
+        <v>3</v>
+      </c>
+      <c r="K15" s="19"/>
+      <c r="L15" s="20"/>
+    </row>
+    <row r="16" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="9">
         <f>SUM(C11:C15)</f>
         <v>15</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="13">
+      <c r="E16" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="9">
         <f>SUM(F11:F15)</f>
+        <v>16</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="9">
+        <f>SUM(I11:I15)</f>
         <v>15</v>
       </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="13">
-        <f>SUM(I11:I15)</f>
-        <v>16</v>
-      </c>
-      <c r="K16" s="27"/>
-      <c r="L16" s="28"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K16" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="9">
+        <f>SUM(L11:L15)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="21">
-        <v>3</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="21">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="15">
+        <v>3</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="15">
         <v>3</v>
       </c>
       <c r="K19">
-        <f>SUM(C16,C9,F9,F16,I16,I9,L4:L7) +22</f>
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+        <f>SUM(C9,F9,I9,L9,L16,I16,F16,C16,F20)</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="15">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20">
+        <f>SUM(C19:C20,F19)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="I21" t="s">
-        <v>39</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="27"/>
+      <c r="E24" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="27"/>
+      <c r="H24" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="I24" s="27"/>
+      <c r="K24" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" s="27"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="8">
+        <v>5</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="7">
+        <v>4</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I26" s="8">
+        <v>3</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L26" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="8">
+        <v>4</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="7">
+        <v>4</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I27" s="8">
+        <v>3</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L27" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="8">
+        <v>2</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="7">
+        <v>3</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I28" s="7">
+        <v>4</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="L28" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="8">
+        <v>1</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="7">
+        <v>3</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I29" s="8">
+        <v>3</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L29" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="8">
+        <v>4</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="7">
+        <v>1</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I30" s="8">
+        <v>3</v>
+      </c>
+      <c r="K30" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="L30" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="8">
+        <f>SUM(C26:C30)</f>
+        <v>16</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="8">
+        <f>SUM(F26:F30)</f>
+        <v>15</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" s="8">
+        <f>SUM(I26:I30)</f>
+        <v>16</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" s="7">
+        <f>SUM(L26:L30)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="E32" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="H32" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="5"/>
+      <c r="K32" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="8">
+        <v>2</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="7">
+        <v>3</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I33" s="8">
+        <v>3</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L33" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="8">
+        <v>5</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="7">
+        <v>4</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I34" s="8">
+        <v>3</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L34" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="8">
+        <v>4</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F35" s="7">
+        <v>5</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I35" s="12">
+        <v>3</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L35" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="8">
+        <v>1</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" s="7">
+        <v>4</v>
+      </c>
+      <c r="H36" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="I36" s="8">
+        <v>3</v>
+      </c>
+      <c r="K36" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="L36" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="8">
+        <v>3</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="7"/>
+      <c r="H37" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I37" s="14">
+        <v>3</v>
+      </c>
+      <c r="K37" s="19"/>
+      <c r="L37" s="20"/>
+    </row>
+    <row r="38" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="9">
+        <f>SUM(C33:C37)</f>
+        <v>15</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" s="9">
+        <f>SUM(F33:F37)</f>
+        <v>16</v>
+      </c>
+      <c r="H38" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="9">
+        <f>SUM(I33:I37)</f>
+        <v>15</v>
+      </c>
+      <c r="K38" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L38" s="9">
+        <f>SUM(L33:L37)</f>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="K8:L16"/>
+  <mergeCells count="8">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="K24:L24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/4Year.xlsx
+++ b/4Year.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\University-Coursework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University-Coursework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33ACC41E-B701-425A-A42C-904D39C735AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6D593A-6881-49E0-B45C-930D8E8E1F5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{0BB7F78E-7DD7-4710-BA6B-50E0048D8553}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{0BB7F78E-7DD7-4710-BA6B-50E0048D8553}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
   <si>
     <t>Year One</t>
   </si>
@@ -104,9 +104,6 @@
     <t>CS270</t>
   </si>
   <si>
-    <t>CS380</t>
-  </si>
-  <si>
     <t>CS275</t>
   </si>
   <si>
@@ -116,187 +113,79 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>CS321</t>
-  </si>
-  <si>
-    <t>CS335</t>
-  </si>
-  <si>
-    <t>CHE107</t>
-  </si>
-  <si>
     <t>MA214</t>
   </si>
   <si>
-    <t>Bio Class</t>
-  </si>
-  <si>
-    <t>Math</t>
-  </si>
-  <si>
-    <t>Bio</t>
-  </si>
-  <si>
-    <t>Phy</t>
-  </si>
-  <si>
-    <t>Chem</t>
-  </si>
-  <si>
-    <t>MINOR</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>MAJOR</t>
-  </si>
-  <si>
-    <t>FOCUS</t>
-  </si>
-  <si>
-    <t>PHY232/242</t>
-  </si>
-  <si>
     <t>CPE282</t>
   </si>
   <si>
     <t>CPE200</t>
   </si>
   <si>
-    <t>EE211</t>
-  </si>
-  <si>
-    <t>CPE287</t>
-  </si>
-  <si>
-    <t>BIO148</t>
-  </si>
-  <si>
-    <t>EE223</t>
-  </si>
-  <si>
-    <t>EE421G</t>
-  </si>
-  <si>
-    <t>EE461G</t>
-  </si>
-  <si>
-    <t>CPE480</t>
-  </si>
-  <si>
-    <t>CPE Elective</t>
-  </si>
-  <si>
-    <t>CPE490</t>
-  </si>
-  <si>
-    <t>CPE491</t>
-  </si>
-  <si>
-    <t>Hardware</t>
-  </si>
-  <si>
-    <t>Software</t>
-  </si>
-  <si>
     <t>Summer Hours</t>
   </si>
   <si>
-    <t>Calc 1</t>
-  </si>
-  <si>
-    <t>Chem 1</t>
-  </si>
-  <si>
-    <t>Computation</t>
-  </si>
-  <si>
-    <t>Intro to Prog.</t>
-  </si>
-  <si>
-    <t>Project Design</t>
-  </si>
-  <si>
-    <t>Calc 2</t>
-  </si>
-  <si>
-    <t>Physics 1</t>
-  </si>
-  <si>
-    <t>Physics 1 Lab</t>
-  </si>
-  <si>
-    <t>Software Eng.</t>
-  </si>
-  <si>
-    <t>Logic Design/Lab</t>
-  </si>
-  <si>
-    <t>Calc 3</t>
-  </si>
-  <si>
-    <t>Systems Prog.</t>
-  </si>
-  <si>
-    <t>Linear Algebra</t>
-  </si>
-  <si>
-    <t>CompE Seminar</t>
-  </si>
-  <si>
-    <t>Diff. Equations</t>
-  </si>
-  <si>
-    <t>Physics 2 / Lab</t>
-  </si>
-  <si>
-    <t>Circuits 1</t>
-  </si>
-  <si>
-    <t>Embedded</t>
-  </si>
-  <si>
-    <t>Algo/Data Struc</t>
-  </si>
-  <si>
-    <t>Operating Sys.</t>
-  </si>
-  <si>
-    <t>AC Circuits</t>
-  </si>
-  <si>
-    <t>Biology 1</t>
-  </si>
-  <si>
-    <t>Calc Stats</t>
-  </si>
-  <si>
-    <t>Signals/Systems</t>
-  </si>
-  <si>
-    <t>Electronics</t>
-  </si>
-  <si>
-    <t>Computer Arch.</t>
-  </si>
-  <si>
-    <t>Chem 2</t>
-  </si>
-  <si>
-    <t>Capstone 1</t>
-  </si>
-  <si>
-    <t>Graphics Prog</t>
-  </si>
-  <si>
-    <t>Linear Analysis</t>
-  </si>
-  <si>
-    <t>Capstone 2</t>
-  </si>
-  <si>
-    <t>PPL201</t>
+    <t>CS460G</t>
+  </si>
+  <si>
+    <t>CS498</t>
+  </si>
+  <si>
+    <t>MA417G</t>
+  </si>
+  <si>
+    <t>CS371</t>
+  </si>
+  <si>
+    <t>CS463G</t>
+  </si>
+  <si>
+    <t>CS499</t>
+  </si>
+  <si>
+    <t>EE395</t>
+  </si>
+  <si>
+    <t>MA320</t>
+  </si>
+  <si>
+    <t>EES170</t>
+  </si>
+  <si>
+    <t>CS375</t>
+  </si>
+  <si>
+    <t>GEO135</t>
+  </si>
+  <si>
+    <t>MA321</t>
+  </si>
+  <si>
+    <t>MA340</t>
+  </si>
+  <si>
+    <t>MA416G</t>
+  </si>
+  <si>
+    <t>STA525</t>
+  </si>
+  <si>
+    <t>PS230</t>
+  </si>
+  <si>
+    <t>FIN250</t>
+  </si>
+  <si>
+    <t>CS535</t>
+  </si>
+  <si>
+    <t>Non-Science</t>
+  </si>
+  <si>
+    <t>CS405G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Math 300+ </t>
   </si>
 </sst>
 </file>
@@ -346,7 +235,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -514,11 +403,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -549,6 +447,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -869,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87DB6634-0914-4859-8FC7-C40DDE4E4DC5}">
-  <dimension ref="B1:R38"/>
+  <dimension ref="B1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,33 +787,34 @@
     <col min="7" max="7" width="3.5703125" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" customWidth="1"/>
     <col min="9" max="9" width="5.5703125" customWidth="1"/>
-    <col min="10" max="10" width="5.140625" customWidth="1"/>
+    <col min="10" max="10" width="2.85546875" customWidth="1"/>
     <col min="11" max="11" width="14.7109375" customWidth="1"/>
     <col min="12" max="12" width="5.5703125" customWidth="1"/>
     <col min="21" max="22" width="5.42578125" customWidth="1"/>
     <col min="23" max="23" width="5.28515625" customWidth="1"/>
+    <col min="24" max="24" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="26" t="s">
+    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="E2" s="26" t="s">
+      <c r="C2" s="30"/>
+      <c r="E2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="H2" s="26" t="s">
+      <c r="F2" s="30"/>
+      <c r="H2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="27"/>
-      <c r="K2" s="26" t="s">
+      <c r="I2" s="30"/>
+      <c r="K2" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="27"/>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="L2" s="30"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
@@ -938,7 +840,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
@@ -946,25 +848,25 @@
         <v>5</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F4" s="7">
         <v>4</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I4" s="8">
         <v>3</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L4" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
@@ -978,19 +880,19 @@
         <v>4</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="I5" s="8">
         <v>3</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="L5" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
@@ -1004,28 +906,19 @@
         <v>3</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I6" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="L6" s="17">
         <v>3</v>
       </c>
-      <c r="P6" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q6">
-        <v>17</v>
-      </c>
-      <c r="R6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
@@ -1039,28 +932,19 @@
         <v>3</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I7" s="8">
         <v>3</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L7" s="8">
         <v>3</v>
       </c>
-      <c r="P7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q7">
-        <v>7</v>
-      </c>
-      <c r="R7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
@@ -1068,34 +952,21 @@
         <v>4</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F8" s="7">
         <v>1</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="8">
-        <v>3</v>
-      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="8"/>
       <c r="K8" s="21" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="L8" s="22">
         <v>3</v>
       </c>
-      <c r="P8" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q8">
-        <v>2</v>
-      </c>
-      <c r="R8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>21</v>
       </c>
@@ -1115,7 +986,7 @@
       </c>
       <c r="I9" s="8">
         <f>SUM(I4:I8)</f>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>21</v>
@@ -1124,17 +995,8 @@
         <f>SUM(L4:L8)</f>
         <v>15</v>
       </c>
-      <c r="P9" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q9">
-        <v>2</v>
-      </c>
-      <c r="R9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="25" t="s">
         <v>4</v>
       </c>
@@ -1153,17 +1015,8 @@
       <c r="L10" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="P10" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q10">
-        <v>2</v>
-      </c>
-      <c r="R10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
@@ -1171,25 +1024,25 @@
         <v>2</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F11" s="7">
         <v>3</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I11" s="8">
         <v>3</v>
       </c>
-      <c r="K11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L11" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="K11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>11</v>
       </c>
@@ -1197,25 +1050,25 @@
         <v>5</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F12" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I12" s="8">
         <v>3</v>
       </c>
-      <c r="K12" s="6" t="s">
-        <v>53</v>
+      <c r="K12" s="18" t="s">
+        <v>35</v>
       </c>
       <c r="L12" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>12</v>
       </c>
@@ -1223,25 +1076,25 @@
         <v>4</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F13" s="7">
-        <v>5</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>49</v>
+        <v>3</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>44</v>
       </c>
       <c r="I13" s="12">
         <v>3</v>
       </c>
-      <c r="K13" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="L13" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="K13" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>13</v>
       </c>
@@ -1249,43 +1102,43 @@
         <v>1</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="F14" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I14" s="8">
         <v>3</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="L14" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="8">
         <v>3</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
-      <c r="H15" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="14">
-        <v>3</v>
-      </c>
+      <c r="E15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="7">
+        <v>3</v>
+      </c>
+      <c r="H15" s="13"/>
+      <c r="I15" s="14"/>
       <c r="K15" s="19"/>
       <c r="L15" s="20"/>
     </row>
-    <row r="16" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="23" t="s">
         <v>21</v>
       </c>
@@ -1298,14 +1151,14 @@
       </c>
       <c r="F16" s="9">
         <f>SUM(F11:F15)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H16" s="23" t="s">
         <v>21</v>
       </c>
       <c r="I16" s="9">
         <f>SUM(I11:I15)</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K16" s="23" t="s">
         <v>21</v>
@@ -1315,439 +1168,67 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E17" s="27"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="27"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="15">
         <v>3</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="F19" s="15">
+        <v>3</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19">
         <v>3</v>
       </c>
       <c r="K19">
         <f>SUM(C9,F9,I9,L9,L16,I16,F16,C16,F20)</f>
-        <v>130</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="15">
         <v>4</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F20">
-        <f>SUM(C19:C20,F19)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+        <f>SUM(C19:C20,F19,I19)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="27"/>
-      <c r="E24" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="F24" s="27"/>
-      <c r="H24" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="I24" s="27"/>
-      <c r="K24" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="L24" s="27"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="8">
-        <v>5</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F26" s="7">
-        <v>4</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I26" s="8">
-        <v>3</v>
-      </c>
-      <c r="K26" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L26" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="8">
-        <v>4</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F27" s="7">
-        <v>4</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I27" s="8">
-        <v>3</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="L27" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="8">
-        <v>2</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F28" s="7">
-        <v>3</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I28" s="7">
-        <v>4</v>
-      </c>
-      <c r="K28" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="L28" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="8">
-        <v>1</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F29" s="7">
-        <v>3</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="I29" s="8">
-        <v>3</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="L29" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="8">
-        <v>4</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F30" s="7">
-        <v>1</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="I30" s="8">
-        <v>3</v>
-      </c>
-      <c r="K30" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="L30" s="22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="8">
-        <f>SUM(C26:C30)</f>
-        <v>16</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" s="8">
-        <f>SUM(F26:F30)</f>
-        <v>15</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I31" s="8">
-        <f>SUM(I26:I30)</f>
-        <v>16</v>
-      </c>
-      <c r="K31" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="L31" s="7">
-        <f>SUM(L26:L30)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="E32" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="5"/>
-      <c r="H32" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="5"/>
-      <c r="K32" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="L32" s="24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" s="8">
-        <v>2</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F33" s="7">
-        <v>3</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="I33" s="8">
-        <v>3</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="L33" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="8">
-        <v>5</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F34" s="7">
-        <v>4</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="I34" s="8">
-        <v>3</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="L34" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="8">
-        <v>4</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F35" s="7">
-        <v>5</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="I35" s="12">
-        <v>3</v>
-      </c>
-      <c r="K35" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="L35" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="8">
-        <v>1</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F36" s="7">
-        <v>4</v>
-      </c>
-      <c r="H36" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="I36" s="8">
-        <v>3</v>
-      </c>
-      <c r="K36" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="L36" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" s="8">
-        <v>3</v>
-      </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="7"/>
-      <c r="H37" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="I37" s="14">
-        <v>3</v>
-      </c>
-      <c r="K37" s="19"/>
-      <c r="L37" s="20"/>
-    </row>
-    <row r="38" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" s="9">
-        <f>SUM(C33:C37)</f>
-        <v>15</v>
-      </c>
-      <c r="E38" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="F38" s="9">
-        <f>SUM(F33:F37)</f>
-        <v>16</v>
-      </c>
-      <c r="H38" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="I38" s="9">
-        <f>SUM(I33:I37)</f>
-        <v>15</v>
-      </c>
-      <c r="K38" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L38" s="9">
-        <f>SUM(L33:L37)</f>
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="4">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="K24:L24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
